--- a/天天利一号2018年11月收益表.xlsx
+++ b/天天利一号2018年11月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9444" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="24345" windowHeight="12540" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>客户盈亏率10%</t>
   </si>
   <si>
-    <t>2018年10月天天利一号盈亏情况</t>
+    <t>2018年11月天天利一号盈亏情况</t>
   </si>
   <si>
     <t>客户盈亏率</t>
@@ -121,15 +121,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -185,41 +185,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,30 +200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,22 +216,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +269,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -314,9 +315,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +355,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,97 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,25 +457,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +511,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +693,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -708,31 +717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,17 +756,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,195 +795,195 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1073,7 +1073,7 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1082,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,19 +1091,16 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,7 +1112,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,10 +1121,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,46 +1133,46 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3102,7 +3099,7 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>10</a:t>
+              <a:t>11</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
@@ -3229,6 +3226,21 @@
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/2</c:v>
                 </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/5</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/6</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/7</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/8</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/9</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3246,6 +3258,21 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-10.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,6 +3372,21 @@
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/2</c:v>
                 </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/5</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/6</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/7</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/8</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/9</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3362,6 +3404,21 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.0065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.007493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.004795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.006535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10724,8 +10781,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="2036445"/>
-        <a:ext cx="14596110" cy="7077075"/>
+        <a:off x="4695825" y="1990725"/>
+        <a:ext cx="16173450" cy="7077075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10759,8 +10816,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5538470" y="1360170"/>
-        <a:ext cx="9117965" cy="5017770"/>
+        <a:off x="6137910" y="1325880"/>
+        <a:ext cx="10141585" cy="5017770"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10780,13 +10837,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>509905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>307975</xdr:rowOff>
+      <xdr:rowOff>279400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>182245</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10794,8 +10851,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6965315" y="856615"/>
-        <a:ext cx="9711690" cy="4183380"/>
+        <a:off x="7682865" y="793750"/>
+        <a:ext cx="10801985" cy="4183380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10829,8 +10886,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="4359910"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="4337050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10864,8 +10921,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="344805"/>
-        <a:ext cx="8574405" cy="5372100"/>
+        <a:off x="5414010" y="333375"/>
+        <a:ext cx="9598660" cy="5257800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10899,8 +10956,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5071745" y="365760"/>
-        <a:ext cx="9237345" cy="6006465"/>
+        <a:off x="5534025" y="342900"/>
+        <a:ext cx="10334625" cy="5857875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10934,8 +10991,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4233545" y="1424940"/>
-        <a:ext cx="9305925" cy="5915025"/>
+        <a:off x="4695825" y="1390650"/>
+        <a:ext cx="10334625" cy="5915025"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10969,8 +11026,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4881880" y="1034415"/>
-        <a:ext cx="8715375" cy="5781675"/>
+        <a:off x="5344160" y="1000125"/>
+        <a:ext cx="9744075" cy="5781675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11004,8 +11061,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4248785" y="1050925"/>
-        <a:ext cx="9290050" cy="5894705"/>
+        <a:off x="4711065" y="1016635"/>
+        <a:ext cx="10314305" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11039,8 +11096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4513580" y="1105535"/>
-        <a:ext cx="9031605" cy="5894705"/>
+        <a:off x="4975860" y="1071245"/>
+        <a:ext cx="10055860" cy="5894705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11074,8 +11131,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638040" y="456565"/>
-        <a:ext cx="9030970" cy="5129530"/>
+        <a:off x="5100320" y="433705"/>
+        <a:ext cx="10055225" cy="5118100"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11109,8 +11166,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4323080" y="1217295"/>
-        <a:ext cx="9116695" cy="5461000"/>
+        <a:off x="4785360" y="1183005"/>
+        <a:ext cx="10140950" cy="5461000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11144,8 +11201,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4951730" y="1312545"/>
-        <a:ext cx="9049385" cy="5417185"/>
+        <a:off x="5414010" y="1278255"/>
+        <a:ext cx="10141585" cy="5417185"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11451,12 +11508,12 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11473,167 +11530,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="84">
+      <c r="B6" s="83">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="84">
+      <c r="B7" s="83">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>-69.1</v>
       </c>
     </row>
@@ -11644,7 +11701,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>23</v>
       </c>
     </row>
@@ -11655,7 +11712,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>176.66</v>
       </c>
     </row>
@@ -11666,7 +11723,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>158</v>
       </c>
     </row>
@@ -11677,7 +11734,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>22.33</v>
       </c>
     </row>
@@ -11688,7 +11745,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>94.67</v>
       </c>
     </row>
@@ -11699,7 +11756,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>60</v>
       </c>
     </row>
@@ -11710,7 +11767,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>67.46</v>
       </c>
     </row>
@@ -11721,7 +11778,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>76.4</v>
       </c>
     </row>
@@ -11732,7 +11789,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="75">
         <v>60.66</v>
       </c>
     </row>
@@ -11743,7 +11800,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="75">
         <v>-108.47</v>
       </c>
     </row>
@@ -11754,7 +11811,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="76">
+      <c r="D31" s="75">
         <v>49.4</v>
       </c>
     </row>
@@ -11765,7 +11822,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="75">
         <v>69.73</v>
       </c>
     </row>
@@ -11776,7 +11833,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="75">
         <v>59.26</v>
       </c>
     </row>
@@ -11787,7 +11844,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="75">
         <v>36.66</v>
       </c>
     </row>
@@ -11798,7 +11855,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="76">
+      <c r="D35" s="75">
         <v>69.33</v>
       </c>
     </row>
@@ -11806,10 +11863,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="80">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="81">
         <v>26.4</v>
       </c>
     </row>
@@ -11820,7 +11877,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="75">
         <v>50</v>
       </c>
     </row>
@@ -11831,7 +11888,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="75">
         <v>51.66</v>
       </c>
     </row>
@@ -11842,7 +11899,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="76">
+      <c r="D39" s="75">
         <v>-61.25</v>
       </c>
     </row>
@@ -11853,7 +11910,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="76">
+      <c r="D40" s="75">
         <v>40.75</v>
       </c>
     </row>
@@ -11864,7 +11921,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="75">
         <v>41.25</v>
       </c>
     </row>
@@ -11875,7 +11932,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="75">
         <v>68.19</v>
       </c>
     </row>
@@ -11886,7 +11943,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="76">
+      <c r="D43" s="75">
         <v>-51.55</v>
       </c>
     </row>
@@ -11897,7 +11954,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="76">
+      <c r="D44" s="75">
         <v>-31.38</v>
       </c>
     </row>
@@ -11908,7 +11965,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="76">
+      <c r="D45" s="75">
         <v>47.74</v>
       </c>
     </row>
@@ -11919,7 +11976,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="76">
+      <c r="D46" s="75">
         <v>22.04</v>
       </c>
     </row>
@@ -11930,7 +11987,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="76">
+      <c r="D47" s="75">
         <v>33.29</v>
       </c>
     </row>
@@ -11941,7 +11998,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="76">
+      <c r="D48" s="75">
         <v>-37.95</v>
       </c>
     </row>
@@ -11952,7 +12009,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="76">
+      <c r="D49" s="75">
         <v>-27.51</v>
       </c>
     </row>
@@ -11963,7 +12020,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="75">
         <v>37.62</v>
       </c>
     </row>
@@ -11974,7 +12031,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="75">
         <v>20.56</v>
       </c>
     </row>
@@ -11985,7 +12042,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="76">
+      <c r="D52" s="75">
         <v>31.97</v>
       </c>
     </row>
@@ -11996,7 +12053,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="76">
+      <c r="D53" s="75">
         <v>21.43</v>
       </c>
     </row>
@@ -12007,7 +12064,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="76">
+      <c r="D54" s="75">
         <v>25.85</v>
       </c>
     </row>
@@ -12018,7 +12075,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="76">
+      <c r="D55" s="75">
         <v>-9.47</v>
       </c>
     </row>
@@ -12041,16 +12098,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12077,14 +12134,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="75"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="75"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12093,7 +12150,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>11.13</v>
       </c>
     </row>
@@ -12104,7 +12161,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>-9.71</v>
       </c>
     </row>
@@ -12115,7 +12172,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>-12.26</v>
       </c>
     </row>
@@ -12126,7 +12183,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>8.6</v>
       </c>
     </row>
@@ -12137,7 +12194,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>6.16</v>
       </c>
     </row>
@@ -12148,7 +12205,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>7.19</v>
       </c>
     </row>
@@ -12159,7 +12216,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>25.24</v>
       </c>
     </row>
@@ -12170,7 +12227,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>33.1</v>
       </c>
     </row>
@@ -12181,7 +12238,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>-13.26</v>
       </c>
     </row>
@@ -12192,7 +12249,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>8.71</v>
       </c>
     </row>
@@ -12203,7 +12260,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>6.02</v>
       </c>
     </row>
@@ -12214,7 +12271,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>15.17</v>
       </c>
     </row>
@@ -12225,7 +12282,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>-24.9</v>
       </c>
     </row>
@@ -12236,7 +12293,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>5.59</v>
       </c>
     </row>
@@ -12247,7 +12304,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>9.46</v>
       </c>
     </row>
@@ -12258,7 +12315,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>-2.89</v>
       </c>
     </row>
@@ -12269,7 +12326,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -12280,7 +12337,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>-11.84</v>
       </c>
     </row>
@@ -12291,7 +12348,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>5.15</v>
       </c>
     </row>
@@ -12302,7 +12359,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>9.25</v>
       </c>
     </row>
@@ -12313,7 +12370,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>-13.74</v>
       </c>
     </row>
@@ -12336,22 +12393,22 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="42" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19.8796296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" style="43" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6666666666667" style="44" customWidth="1"/>
     <col min="9" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12427,7 +12484,7 @@
         <f>$E7*$H$3+$D6</f>
         <v>-0.0065</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="53">
         <f>IF(F7&gt;0,$F7*$G$3,IF(F7&lt;0,F7))</f>
         <v>-10.7</v>
       </c>
@@ -12436,160 +12493,225 @@
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B8" s="34"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="34">
+        <v>43409</v>
+      </c>
+      <c r="C8" s="54">
+        <f>$E8*$H$3+$D7</f>
+        <v>0.003762</v>
+      </c>
+      <c r="D8" s="55">
+        <f>$E8*$H$3+$D7</f>
+        <v>0.003762</v>
+      </c>
+      <c r="E8" s="53">
+        <f>IF(F8&gt;0,$F8*$G$3,IF(F8&lt;0,F8))</f>
+        <v>10.262</v>
+      </c>
+      <c r="F8" s="53">
+        <v>14.66</v>
+      </c>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B9" s="34"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="34">
+        <v>43410</v>
+      </c>
+      <c r="C9" s="54">
+        <f>$E9*$H$3+$D8</f>
+        <v>0.007493</v>
+      </c>
+      <c r="D9" s="55">
+        <f>$E9*$H$3+$D8</f>
+        <v>0.007493</v>
+      </c>
+      <c r="E9" s="53">
+        <f>IF(F9&gt;0,$F9*$G$3,IF(F9&lt;0,F9))</f>
+        <v>3.731</v>
+      </c>
+      <c r="F9" s="53">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B10" s="34"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="34">
+        <v>43411</v>
+      </c>
+      <c r="C10" s="54">
+        <f>$E10*$H$3+$D9</f>
+        <v>0.000132999999999999</v>
+      </c>
+      <c r="D10" s="55">
+        <f>$E10*$H$3+$D9</f>
+        <v>0.000132999999999999</v>
+      </c>
+      <c r="E10" s="53">
+        <f>IF(F10&gt;0,$F10*$G$3,IF(F10&lt;0,F10))</f>
+        <v>-7.36</v>
+      </c>
+      <c r="F10" s="53">
+        <v>-7.36</v>
+      </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B11" s="34"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="34">
+        <v>43412</v>
+      </c>
+      <c r="C11" s="54">
+        <f>$E11*$H$3+$D10</f>
+        <v>0.004795</v>
+      </c>
+      <c r="D11" s="55">
+        <f>$E11*$H$3+$D10</f>
+        <v>0.004795</v>
+      </c>
+      <c r="E11" s="53">
+        <f>IF(F11&gt;0,$F11*$G$3,IF(F11&lt;0,F11))</f>
+        <v>4.662</v>
+      </c>
+      <c r="F11" s="56">
+        <v>6.66</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B12" s="34"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="34">
+        <v>43413</v>
+      </c>
+      <c r="C12" s="54">
+        <f>$E12*$H$3+$D11</f>
+        <v>-0.006535</v>
+      </c>
+      <c r="D12" s="55">
+        <f>$E12*$H$3+$D11</f>
+        <v>-0.006535</v>
+      </c>
+      <c r="E12" s="53">
+        <f>IF(F12&gt;0,$F12*$G$3,IF(F12&lt;0,F12))</f>
+        <v>-11.33</v>
+      </c>
+      <c r="F12" s="57">
+        <v>-11.33</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6">
       <c r="B13" s="34"/>
       <c r="C13" s="51"/>
       <c r="D13" s="52"/>
-      <c r="E13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="53"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:6">
       <c r="B14" s="34"/>
       <c r="C14" s="51"/>
       <c r="D14" s="52"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="60"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:6">
       <c r="B15" s="34"/>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="61"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="60"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
       <c r="B16" s="34"/>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="60"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
       <c r="B17" s="34"/>
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="60"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="60"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="60"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="62"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="62"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
       <c r="C24" s="10"/>
       <c r="D24" s="52"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="65"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="65"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="59"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="65"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="38"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="62"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="65"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="73"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="72"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="61"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12613,16 +12735,16 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12873,10 +12995,10 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="4" width="31.1296296296296" style="20" customWidth="1"/>
+    <col min="2" max="4" width="31.1333333333333" style="20" customWidth="1"/>
     <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -13124,16 +13246,16 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="4" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13257,12 +13379,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13286,79 +13408,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="84">
+      <c r="B6" s="83">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="84">
+      <c r="B7" s="83">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="85">
+      <c r="B11" s="84">
         <v>42307</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="80">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="81">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="77">
         <v>146.3</v>
       </c>
     </row>
@@ -13383,12 +13505,12 @@
       <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="83" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13412,108 +13534,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="84">
+      <c r="B6" s="83">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="84">
+      <c r="B7" s="83">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>-69.1</v>
       </c>
     </row>
@@ -13524,7 +13646,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>23</v>
       </c>
     </row>
@@ -13535,7 +13657,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>176.66</v>
       </c>
     </row>
@@ -13546,7 +13668,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>158</v>
       </c>
     </row>
@@ -13557,7 +13679,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>22.33</v>
       </c>
     </row>
@@ -13568,7 +13690,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>94.67</v>
       </c>
     </row>
@@ -13579,7 +13701,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>60</v>
       </c>
     </row>
@@ -13590,7 +13712,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>67.46</v>
       </c>
     </row>
@@ -13601,7 +13723,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>76.4</v>
       </c>
     </row>
@@ -13612,7 +13734,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>60.66</v>
       </c>
     </row>
@@ -13623,7 +13745,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>-108.47</v>
       </c>
     </row>
@@ -13634,7 +13756,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -13649,10 +13771,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="80">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="81">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -13660,13 +13782,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D28" s="77">
         <v>657.37</v>
       </c>
     </row>
@@ -13690,15 +13812,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -13727,7 +13849,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="75">
         <v>59.26</v>
       </c>
     </row>
@@ -13738,7 +13860,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="75">
         <v>36.66</v>
       </c>
     </row>
@@ -13749,7 +13871,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>69.33</v>
       </c>
     </row>
@@ -13757,10 +13879,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>26.4</v>
       </c>
     </row>
@@ -13771,7 +13893,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>50</v>
       </c>
     </row>
@@ -13782,7 +13904,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>51.66</v>
       </c>
     </row>
@@ -13793,7 +13915,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>-61.25</v>
       </c>
     </row>
@@ -13804,7 +13926,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>40.75</v>
       </c>
     </row>
@@ -13815,7 +13937,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>41.25</v>
       </c>
     </row>
@@ -13826,7 +13948,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>68.19</v>
       </c>
     </row>
@@ -13837,7 +13959,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>-51.55</v>
       </c>
     </row>
@@ -13848,7 +13970,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>-31.38</v>
       </c>
     </row>
@@ -13859,7 +13981,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>47.74</v>
       </c>
     </row>
@@ -13870,7 +13992,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>22.04</v>
       </c>
     </row>
@@ -13881,7 +14003,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>33.29</v>
       </c>
     </row>
@@ -13892,7 +14014,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>-37.95</v>
       </c>
     </row>
@@ -13903,7 +14025,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>-27.51</v>
       </c>
     </row>
@@ -13914,7 +14036,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>37.62</v>
       </c>
     </row>
@@ -13925,7 +14047,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>20.56</v>
       </c>
     </row>
@@ -13936,7 +14058,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>31.97</v>
       </c>
     </row>
@@ -13947,7 +14069,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>21.43</v>
       </c>
     </row>
@@ -13958,7 +14080,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>25.85</v>
       </c>
     </row>
@@ -13969,18 +14091,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="77">
         <v>259.69</v>
       </c>
     </row>
@@ -14004,16 +14126,16 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14033,31 +14155,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>5.98</v>
       </c>
     </row>
@@ -14068,7 +14190,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>10.15</v>
       </c>
     </row>
@@ -14079,7 +14201,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>-11.75</v>
       </c>
     </row>
@@ -14090,7 +14212,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>16.39</v>
       </c>
     </row>
@@ -14101,7 +14223,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>-25.55</v>
       </c>
     </row>
@@ -14112,7 +14234,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>11.45</v>
       </c>
     </row>
@@ -14123,7 +14245,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>7.68</v>
       </c>
     </row>
@@ -14134,7 +14256,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>-8.57</v>
       </c>
     </row>
@@ -14145,7 +14267,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>-15.65</v>
       </c>
     </row>
@@ -14156,7 +14278,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>10.16</v>
       </c>
     </row>
@@ -14167,7 +14289,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>17.65</v>
       </c>
     </row>
@@ -14178,7 +14300,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>21.08</v>
       </c>
     </row>
@@ -14189,7 +14311,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>-13.14</v>
       </c>
     </row>
@@ -14200,7 +14322,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>-17.07</v>
       </c>
     </row>
@@ -14211,7 +14333,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>9.69</v>
       </c>
     </row>
@@ -14222,7 +14344,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -14233,7 +14355,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>9.42</v>
       </c>
     </row>
@@ -14244,7 +14366,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>21.99</v>
       </c>
     </row>
@@ -14255,7 +14377,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>14.64</v>
       </c>
     </row>
@@ -14266,7 +14388,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>8.1</v>
       </c>
     </row>
@@ -14277,7 +14399,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="74">
         <v>-8.61</v>
       </c>
     </row>
@@ -14288,7 +14410,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="74">
         <v>11.67</v>
       </c>
     </row>
@@ -14299,7 +14421,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="74">
         <v>10.26</v>
       </c>
     </row>
@@ -14310,7 +14432,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="74">
         <v>11.04</v>
       </c>
     </row>
@@ -14321,7 +14443,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="74">
         <v>13.18</v>
       </c>
     </row>
@@ -14332,7 +14454,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="75">
         <v>12.06</v>
       </c>
     </row>
@@ -14343,7 +14465,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="76">
+      <c r="D35" s="75">
         <v>8.89</v>
       </c>
     </row>
@@ -14354,7 +14476,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="76">
+      <c r="D36" s="75">
         <v>10.88</v>
       </c>
     </row>
@@ -14413,7 +14535,7 @@
         <v>10.38</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="2:4">
+    <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="30">
         <v>42425</v>
       </c>
@@ -14508,7 +14630,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="76">
+      <c r="D50" s="75">
         <v>-14.86</v>
       </c>
     </row>
@@ -14519,7 +14641,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="76">
+      <c r="D51" s="75">
         <v>11.3</v>
       </c>
     </row>
@@ -14530,7 +14652,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="76">
+      <c r="D52" s="75">
         <v>-9.92</v>
       </c>
     </row>
@@ -14541,7 +14663,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="76">
+      <c r="D53" s="75">
         <v>8.18</v>
       </c>
     </row>
@@ -14552,7 +14674,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="76">
+      <c r="D54" s="75">
         <v>-4.63</v>
       </c>
     </row>
@@ -14575,16 +14697,16 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -14610,31 +14732,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="80">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="81">
         <v>5.98</v>
       </c>
     </row>
@@ -14645,7 +14767,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>10.15</v>
       </c>
     </row>
@@ -14656,7 +14778,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>-11.75</v>
       </c>
     </row>
@@ -14667,7 +14789,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>16.39</v>
       </c>
     </row>
@@ -14678,7 +14800,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>-25.55</v>
       </c>
     </row>
@@ -14689,7 +14811,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>11.45</v>
       </c>
     </row>
@@ -14700,7 +14822,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>7.68</v>
       </c>
     </row>
@@ -14711,7 +14833,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>-8.57</v>
       </c>
     </row>
@@ -14722,7 +14844,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>-15.65</v>
       </c>
     </row>
@@ -14733,7 +14855,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>10.16</v>
       </c>
     </row>
@@ -14744,7 +14866,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>17.65</v>
       </c>
     </row>
@@ -14755,7 +14877,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>21.08</v>
       </c>
     </row>
@@ -14766,7 +14888,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>-13.14</v>
       </c>
     </row>
@@ -14777,7 +14899,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>-17.07</v>
       </c>
     </row>
@@ -14788,7 +14910,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>9.69</v>
       </c>
     </row>
@@ -14799,7 +14921,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>-7.94</v>
       </c>
     </row>
@@ -14810,7 +14932,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>9.42</v>
       </c>
     </row>
@@ -14821,7 +14943,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>21.99</v>
       </c>
     </row>
@@ -14832,7 +14954,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>14.64</v>
       </c>
     </row>
@@ -14843,7 +14965,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>8.1</v>
       </c>
     </row>
@@ -14852,23 +14974,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="75"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="76"/>
+      <c r="D30" s="75"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="78">
+      <c r="D31" s="77">
         <v>15.39</v>
       </c>
     </row>
@@ -14892,16 +15014,16 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="28" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="28" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15100,13 +15222,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="77">
         <v>35.86</v>
       </c>
     </row>
@@ -15130,16 +15252,16 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15168,7 +15290,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="74">
         <v>11.57</v>
       </c>
     </row>
@@ -15179,7 +15301,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="74">
         <v>2.01</v>
       </c>
     </row>
@@ -15190,7 +15312,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="74">
         <v>7.37</v>
       </c>
     </row>
@@ -15201,7 +15323,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="74">
         <v>10.32</v>
       </c>
     </row>
@@ -15212,7 +15334,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="74">
         <v>8.22</v>
       </c>
     </row>
@@ -15223,7 +15345,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>-14.86</v>
       </c>
     </row>
@@ -15234,7 +15356,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>11.3</v>
       </c>
     </row>
@@ -15245,7 +15367,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>-9.92</v>
       </c>
     </row>
@@ -15256,7 +15378,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>8.18</v>
       </c>
     </row>
@@ -15267,7 +15389,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>-4.63</v>
       </c>
     </row>
@@ -15278,7 +15400,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>-13.93</v>
       </c>
     </row>
@@ -15289,7 +15411,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>8.68</v>
       </c>
     </row>
@@ -15300,7 +15422,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>8.19</v>
       </c>
     </row>
@@ -15311,7 +15433,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>11.79</v>
       </c>
     </row>
@@ -15322,7 +15444,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>7.63</v>
       </c>
     </row>
@@ -15333,7 +15455,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>11.12</v>
       </c>
     </row>
@@ -15344,7 +15466,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>-10.16</v>
       </c>
     </row>
@@ -15355,7 +15477,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>26.29</v>
       </c>
     </row>
@@ -15366,7 +15488,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>-6.01</v>
       </c>
     </row>
@@ -15377,7 +15499,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>7.72</v>
       </c>
     </row>
@@ -15388,7 +15510,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="75">
         <v>-8.29</v>
       </c>
     </row>
@@ -15399,7 +15521,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="75">
         <v>10.41</v>
       </c>
     </row>
@@ -15410,18 +15532,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="75">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="77">
         <v>30.41</v>
       </c>
     </row>
@@ -15445,16 +15567,16 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8796296296296" style="74" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="8.37962962962963" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -15483,7 +15605,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="74">
         <v>9.93</v>
       </c>
     </row>
@@ -15494,7 +15616,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="74">
         <v>21.55</v>
       </c>
     </row>
@@ -15505,7 +15627,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="75">
         <v>-9.01</v>
       </c>
     </row>
@@ -15516,7 +15638,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="75">
         <v>12.66</v>
       </c>
     </row>
@@ -15527,7 +15649,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="75">
         <v>-12.17</v>
       </c>
     </row>
@@ -15538,7 +15660,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="75">
         <v>34.53</v>
       </c>
     </row>
@@ -15549,7 +15671,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="75">
         <v>8.89</v>
       </c>
     </row>
@@ -15560,7 +15682,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="75">
         <v>32.33</v>
       </c>
     </row>
@@ -15571,7 +15693,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="75">
         <v>-17.71</v>
       </c>
     </row>
@@ -15582,7 +15704,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="75">
         <v>-15.53</v>
       </c>
     </row>
@@ -15593,7 +15715,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="75">
         <v>9.57</v>
       </c>
     </row>
@@ -15604,7 +15726,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="75">
         <v>-7.86</v>
       </c>
     </row>
@@ -15615,7 +15737,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="75">
         <v>6.81</v>
       </c>
     </row>
@@ -15626,7 +15748,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="75">
         <v>21.56</v>
       </c>
     </row>
@@ -15637,7 +15759,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="75">
         <v>-18.57</v>
       </c>
     </row>
@@ -15648,7 +15770,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="75">
         <v>12.33</v>
       </c>
     </row>
@@ -15659,7 +15781,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="75">
         <v>8.05</v>
       </c>
     </row>
@@ -15670,7 +15792,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="75">
         <v>-23.18</v>
       </c>
     </row>
@@ -15681,7 +15803,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="75">
         <v>-15.23</v>
       </c>
     </row>
@@ -15692,7 +15814,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="75">
         <v>20.29</v>
       </c>
     </row>
@@ -15701,16 +15823,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="77" t="s">
+      <c r="B27" s="76" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="77">
         <v>40.11</v>
       </c>
     </row>

--- a/天天利一号2018年11月收益表.xlsx
+++ b/天天利一号2018年11月收益表.xlsx
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -179,7 +179,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,14 +230,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,78 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,14 +284,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +343,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +379,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,31 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,12 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -475,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,43 +475,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +679,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -697,37 +712,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,7 +730,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,22 +761,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,133 +795,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,13 +1100,13 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,6 +3241,21 @@
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/9</c:v>
                 </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/12</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/13</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/14</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/15</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/16</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3273,6 +3288,21 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-11.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,6 +3417,21 @@
                 <c:pt idx="6" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/9</c:v>
                 </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/12</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/13</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/14</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/15</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/16</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3419,6 +3464,21 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-0.006535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.001873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.002502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.008858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.006366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.001025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12393,7 +12453,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -12593,80 +12653,145 @@
       </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B13" s="34"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="34">
+        <v>43416</v>
+      </c>
+      <c r="C13" s="54">
+        <f>$E13*$H$3+$D12</f>
+        <v>-0.001873</v>
+      </c>
+      <c r="D13" s="55">
+        <f>$E13*$H$3+$D12</f>
+        <v>-0.001873</v>
+      </c>
+      <c r="E13" s="53">
+        <f>IF(F13&gt;0,$F13*$G$3,IF(F13&lt;0,F13))</f>
+        <v>4.662</v>
+      </c>
+      <c r="F13" s="53">
+        <v>6.66</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B14" s="34"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="B14" s="34">
+        <v>43417</v>
+      </c>
+      <c r="C14" s="54">
+        <f>$E14*$H$3+$D13</f>
+        <v>0.002502</v>
+      </c>
+      <c r="D14" s="55">
+        <f>$E14*$H$3+$D13</f>
+        <v>0.002502</v>
+      </c>
+      <c r="E14" s="53">
+        <f>IF(F14&gt;0,$F14*$G$3,IF(F14&lt;0,F14))</f>
+        <v>4.375</v>
+      </c>
+      <c r="F14" s="58">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B15" s="34"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="34">
+        <v>43418</v>
+      </c>
+      <c r="C15" s="54">
+        <f>$E15*$H$3+$D14</f>
+        <v>-0.008858</v>
+      </c>
+      <c r="D15" s="55">
+        <f>$E15*$H$3+$D14</f>
+        <v>-0.008858</v>
+      </c>
+      <c r="E15" s="53">
+        <f>IF(F15&gt;0,$F15*$G$3,IF(F15&lt;0,F15))</f>
+        <v>-11.36</v>
+      </c>
+      <c r="F15" s="59">
+        <v>-11.36</v>
+      </c>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B16" s="34"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="34">
+        <v>43419</v>
+      </c>
+      <c r="C16" s="54">
+        <f>$E16*$H$3+$D15</f>
+        <v>-0.006366</v>
+      </c>
+      <c r="D16" s="55">
+        <f>$E16*$H$3+$D15</f>
+        <v>-0.006366</v>
+      </c>
+      <c r="E16" s="53">
+        <f>IF(F16&gt;0,$F16*$G$3,IF(F16&lt;0,F16))</f>
+        <v>2.492</v>
+      </c>
+      <c r="F16" s="59">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B17" s="34"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
+      <c r="B17" s="34">
+        <v>43420</v>
+      </c>
+      <c r="C17" s="54">
+        <f>$E17*$H$3+$D16</f>
+        <v>-0.001025</v>
+      </c>
+      <c r="D17" s="55">
+        <f>$E17*$H$3+$D16</f>
+        <v>-0.001025</v>
+      </c>
+      <c r="E17" s="53">
+        <f>IF(F17&gt;0,$F17*$G$3,IF(F17&lt;0,F17))</f>
+        <v>5.341</v>
+      </c>
+      <c r="F17" s="58">
+        <v>7.63</v>
+      </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
       <c r="B18" s="34"/>
       <c r="C18" s="51"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
       <c r="B19" s="34"/>
       <c r="C19" s="51"/>
       <c r="D19" s="52"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
       <c r="B20" s="34"/>
       <c r="C20" s="51"/>
       <c r="D20" s="52"/>
-      <c r="E20" s="58"/>
+      <c r="E20" s="60"/>
       <c r="F20" s="61"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
       <c r="B21" s="34"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="58"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="61"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
       <c r="B22" s="34"/>
       <c r="C22" s="51"/>
       <c r="D22" s="52"/>
-      <c r="E22" s="58"/>
+      <c r="E22" s="60"/>
       <c r="F22" s="61"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="58"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="61"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
@@ -12711,7 +12836,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="71"/>
       <c r="E29" s="61"/>
-      <c r="F29" s="60"/>
+      <c r="F29" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/天天利一号2018年11月收益表.xlsx
+++ b/天天利一号2018年11月收益表.xlsx
@@ -121,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000%"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25">
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1073,7 +1073,7 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1082,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1091,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,10 +1106,10 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1121,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1133,46 +1133,46 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3256,6 +3256,21 @@
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/16</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/19</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/20</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/21</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/22</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/23</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3303,6 +3318,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,6 +3462,21 @@
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/16</c:v>
                 </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/19</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/20</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/21</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/22</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/23</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3479,6 +3524,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.001025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.005506</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.001074</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.004148</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.007403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.001257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12453,7 +12513,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -12753,46 +12813,111 @@
       </c>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:6">
-      <c r="B18" s="34"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="34">
+        <v>43423</v>
+      </c>
+      <c r="C18" s="54">
+        <f>$E18*$H$3+$D17</f>
+        <v>0.005506</v>
+      </c>
+      <c r="D18" s="55">
+        <f>$E18*$H$3+$D17</f>
+        <v>0.005506</v>
+      </c>
+      <c r="E18" s="53">
+        <f>IF(F18&gt;0,$F18*$G$3,IF(F18&lt;0,F18))</f>
+        <v>6.531</v>
+      </c>
+      <c r="F18" s="58">
+        <v>9.33</v>
+      </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B19" s="34"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="34">
+        <v>43424</v>
+      </c>
+      <c r="C19" s="54">
+        <f>$E19*$H$3+$D18</f>
+        <v>-0.001074</v>
+      </c>
+      <c r="D19" s="55">
+        <f>$E19*$H$3+$D18</f>
+        <v>-0.001074</v>
+      </c>
+      <c r="E19" s="53">
+        <f>IF(F19&gt;0,$F19*$G$3,IF(F19&lt;0,F19))</f>
+        <v>-6.58</v>
+      </c>
+      <c r="F19" s="58">
+        <v>-6.58</v>
+      </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B20" s="34"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="34">
+        <v>43425</v>
+      </c>
+      <c r="C20" s="54">
+        <f>$E20*$H$3+$D19</f>
+        <v>0.004148</v>
+      </c>
+      <c r="D20" s="55">
+        <f>$E20*$H$3+$D19</f>
+        <v>0.004148</v>
+      </c>
+      <c r="E20" s="53">
+        <f>IF(F20&gt;0,$F20*$G$3,IF(F20&lt;0,F20))</f>
+        <v>5.222</v>
+      </c>
+      <c r="F20" s="60">
+        <v>7.46</v>
+      </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B21" s="34"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="B21" s="34">
+        <v>43426</v>
+      </c>
+      <c r="C21" s="54">
+        <f>$E21*$H$3+$D20</f>
+        <v>0.007403</v>
+      </c>
+      <c r="D21" s="55">
+        <f>$E21*$H$3+$D20</f>
+        <v>0.007403</v>
+      </c>
+      <c r="E21" s="53">
+        <f>IF(F21&gt;0,$F21*$G$3,IF(F21&lt;0,F21))</f>
+        <v>3.255</v>
+      </c>
+      <c r="F21" s="60">
+        <v>4.65</v>
+      </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B22" s="34"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="B22" s="34">
+        <v>43427</v>
+      </c>
+      <c r="C22" s="54">
+        <f>$E22*$H$3+$D21</f>
+        <v>-0.001257</v>
+      </c>
+      <c r="D22" s="55">
+        <f>$E22*$H$3+$D21</f>
+        <v>-0.001257</v>
+      </c>
+      <c r="E22" s="53">
+        <f>IF(F22&gt;0,$F22*$G$3,IF(F22&lt;0,F22))</f>
+        <v>-8.66</v>
+      </c>
+      <c r="F22" s="60">
+        <v>-8.66</v>
+      </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
       <c r="B23" s="34"/>
       <c r="C23" s="51"/>
       <c r="D23" s="52"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
       <c r="B24" s="34"/>
@@ -12820,7 +12945,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="71"/>
       <c r="E27" s="70"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
       <c r="B28" s="64"/>
@@ -12835,7 +12960,7 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="71"/>
-      <c r="E29" s="61"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="59"/>
     </row>
   </sheetData>

--- a/天天利一号2018年11月收益表.xlsx
+++ b/天天利一号2018年11月收益表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540" firstSheet="6" activeTab="10"/>
+    <workbookView windowWidth="24345" windowHeight="12465" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2015汇总" sheetId="1" r:id="rId1"/>
@@ -121,14 +121,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="25">
@@ -179,22 +179,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +201,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -217,6 +218,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,22 +244,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -266,38 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -307,6 +300,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -316,7 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,25 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,6 +361,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,19 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,31 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,21 +679,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -708,20 +693,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,6 +728,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,17 +752,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,195 +795,195 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,13 +992,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,7 +1052,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1073,7 +1073,7 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,7 +1082,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1091,7 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,70 +1109,52 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3271,6 +3253,21 @@
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/23</c:v>
                 </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/26</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/27</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/28</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/29</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/30</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3333,6 +3330,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-8.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="General">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,6 +3489,21 @@
                 <c:pt idx="16" c:formatCode="yyyy/m/d">
                   <c:v>2018/11/23</c:v>
                 </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/26</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/27</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/28</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/29</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>2018/11/30</c:v>
+                </c:pt>
                 <c:pt idx="23" c:formatCode="yyyy/m/d">
                   <c:v>合计</c:v>
                 </c:pt>
@@ -3539,6 +3566,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>-0.001257</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.007353</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.014052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.021283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.025007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.015347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11633,7 +11675,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="76" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -11650,167 +11692,167 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="83">
+      <c r="B6" s="77">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="69">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="83">
+      <c r="B7" s="77">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="69">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="83">
+      <c r="B8" s="77">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="83">
+      <c r="B9" s="77">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="69">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="83">
+      <c r="B10" s="77">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="83">
+      <c r="B11" s="77">
         <v>42307</v>
       </c>
       <c r="C11" s="38">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="83">
+      <c r="B12" s="77">
         <v>42310</v>
       </c>
       <c r="C12" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>210.7</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="83">
+      <c r="B13" s="77">
         <v>42311</v>
       </c>
       <c r="C13" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>-18.2</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="83">
+      <c r="B14" s="77">
         <v>42312</v>
       </c>
       <c r="C14" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>508.9</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="83">
+      <c r="B15" s="77">
         <v>42313</v>
       </c>
       <c r="C15" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>-145.6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:4">
-      <c r="B16" s="83">
+      <c r="B16" s="77">
         <v>42314</v>
       </c>
       <c r="C16" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>38.66</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:4">
-      <c r="B17" s="83">
+      <c r="B17" s="77">
         <v>42317</v>
       </c>
       <c r="C17" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>-173.8</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:4">
-      <c r="B18" s="83">
+      <c r="B18" s="77">
         <v>42318</v>
       </c>
       <c r="C18" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>-358.86</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:4">
-      <c r="B19" s="83">
+      <c r="B19" s="77">
         <v>42319</v>
       </c>
       <c r="C19" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>-85.17</v>
       </c>
     </row>
     <row r="20" ht="27" customHeight="1" spans="2:4">
-      <c r="B20" s="83">
+      <c r="B20" s="77">
         <v>42320</v>
       </c>
       <c r="C20" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>-69.1</v>
       </c>
     </row>
@@ -11821,7 +11863,7 @@
       <c r="C21" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>23</v>
       </c>
     </row>
@@ -11832,7 +11874,7 @@
       <c r="C22" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>176.66</v>
       </c>
     </row>
@@ -11843,7 +11885,7 @@
       <c r="C23" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>158</v>
       </c>
     </row>
@@ -11854,7 +11896,7 @@
       <c r="C24" s="38">
         <v>0.09</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>22.33</v>
       </c>
     </row>
@@ -11865,7 +11907,7 @@
       <c r="C25" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>94.67</v>
       </c>
     </row>
@@ -11876,7 +11918,7 @@
       <c r="C26" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>60</v>
       </c>
     </row>
@@ -11887,7 +11929,7 @@
       <c r="C27" s="38">
         <v>0.201</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>67.46</v>
       </c>
     </row>
@@ -11898,7 +11940,7 @@
       <c r="C28" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>76.4</v>
       </c>
     </row>
@@ -11909,7 +11951,7 @@
       <c r="C29" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="69">
         <v>60.66</v>
       </c>
     </row>
@@ -11920,7 +11962,7 @@
       <c r="C30" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="69">
         <v>-108.47</v>
       </c>
     </row>
@@ -11931,7 +11973,7 @@
       <c r="C31" s="38">
         <v>0.24</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="69">
         <v>49.4</v>
       </c>
     </row>
@@ -11942,7 +11984,7 @@
       <c r="C32" s="38">
         <v>0.2748</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="69">
         <v>69.73</v>
       </c>
     </row>
@@ -11953,7 +11995,7 @@
       <c r="C33" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="69">
         <v>59.26</v>
       </c>
     </row>
@@ -11964,7 +12006,7 @@
       <c r="C34" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="69">
         <v>36.66</v>
       </c>
     </row>
@@ -11975,7 +12017,7 @@
       <c r="C35" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="69">
         <v>69.33</v>
       </c>
     </row>
@@ -11983,10 +12025,10 @@
       <c r="B36" s="30">
         <v>42342</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="74">
         <v>0.3706</v>
       </c>
-      <c r="D36" s="81">
+      <c r="D36" s="75">
         <v>26.4</v>
       </c>
     </row>
@@ -11997,7 +12039,7 @@
       <c r="C37" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D37" s="75">
+      <c r="D37" s="69">
         <v>50</v>
       </c>
     </row>
@@ -12008,7 +12050,7 @@
       <c r="C38" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D38" s="75">
+      <c r="D38" s="69">
         <v>51.66</v>
       </c>
     </row>
@@ -12019,7 +12061,7 @@
       <c r="C39" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D39" s="75">
+      <c r="D39" s="69">
         <v>-61.25</v>
       </c>
     </row>
@@ -12030,7 +12072,7 @@
       <c r="C40" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D40" s="75">
+      <c r="D40" s="69">
         <v>40.75</v>
       </c>
     </row>
@@ -12041,7 +12083,7 @@
       <c r="C41" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D41" s="75">
+      <c r="D41" s="69">
         <v>41.25</v>
       </c>
     </row>
@@ -12052,7 +12094,7 @@
       <c r="C42" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D42" s="75">
+      <c r="D42" s="69">
         <v>68.19</v>
       </c>
     </row>
@@ -12063,7 +12105,7 @@
       <c r="C43" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D43" s="75">
+      <c r="D43" s="69">
         <v>-51.55</v>
       </c>
     </row>
@@ -12074,7 +12116,7 @@
       <c r="C44" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D44" s="75">
+      <c r="D44" s="69">
         <v>-31.38</v>
       </c>
     </row>
@@ -12085,7 +12127,7 @@
       <c r="C45" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D45" s="75">
+      <c r="D45" s="69">
         <v>47.74</v>
       </c>
     </row>
@@ -12096,7 +12138,7 @@
       <c r="C46" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D46" s="75">
+      <c r="D46" s="69">
         <v>22.04</v>
       </c>
     </row>
@@ -12107,7 +12149,7 @@
       <c r="C47" s="38">
         <v>0.476</v>
       </c>
-      <c r="D47" s="75">
+      <c r="D47" s="69">
         <v>33.29</v>
       </c>
     </row>
@@ -12118,7 +12160,7 @@
       <c r="C48" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D48" s="75">
+      <c r="D48" s="69">
         <v>-37.95</v>
       </c>
     </row>
@@ -12129,7 +12171,7 @@
       <c r="C49" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D49" s="75">
+      <c r="D49" s="69">
         <v>-27.51</v>
       </c>
     </row>
@@ -12140,7 +12182,7 @@
       <c r="C50" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="69">
         <v>37.62</v>
       </c>
     </row>
@@ -12151,7 +12193,7 @@
       <c r="C51" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="69">
         <v>20.56</v>
       </c>
     </row>
@@ -12162,7 +12204,7 @@
       <c r="C52" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="69">
         <v>31.97</v>
       </c>
     </row>
@@ -12173,7 +12215,7 @@
       <c r="C53" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="69">
         <v>21.43</v>
       </c>
     </row>
@@ -12184,7 +12226,7 @@
       <c r="C54" s="38">
         <v>0.512</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="69">
         <v>25.85</v>
       </c>
     </row>
@@ -12195,7 +12237,7 @@
       <c r="C55" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D55" s="75">
+      <c r="D55" s="69">
         <v>-9.47</v>
       </c>
     </row>
@@ -12223,7 +12265,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
@@ -12254,14 +12296,14 @@
         <v>42491</v>
       </c>
       <c r="C6" s="31"/>
-      <c r="D6" s="74"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42492</v>
       </c>
       <c r="C7" s="31"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="68"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:4">
       <c r="B8" s="30">
@@ -12270,7 +12312,7 @@
       <c r="C8" s="38">
         <v>0.2669</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>11.13</v>
       </c>
     </row>
@@ -12281,7 +12323,7 @@
       <c r="C9" s="38">
         <v>0.2572</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="69">
         <v>-9.71</v>
       </c>
     </row>
@@ -12292,7 +12334,7 @@
       <c r="C10" s="38">
         <v>0.245</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>-12.26</v>
       </c>
     </row>
@@ -12303,7 +12345,7 @@
       <c r="C11" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>8.6</v>
       </c>
     </row>
@@ -12314,7 +12356,7 @@
       <c r="C12" s="38">
         <v>0.2597</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>6.16</v>
       </c>
     </row>
@@ -12325,7 +12367,7 @@
       <c r="C13" s="38">
         <v>0.2668</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>7.19</v>
       </c>
     </row>
@@ -12336,7 +12378,7 @@
       <c r="C14" s="38">
         <v>0.292</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>25.24</v>
       </c>
     </row>
@@ -12347,7 +12389,7 @@
       <c r="C15" s="38">
         <v>0.3251</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>33.1</v>
       </c>
     </row>
@@ -12358,7 +12400,7 @@
       <c r="C16" s="38">
         <v>0.3119</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>-13.26</v>
       </c>
     </row>
@@ -12369,7 +12411,7 @@
       <c r="C17" s="38">
         <v>0.3206</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>8.71</v>
       </c>
     </row>
@@ -12380,7 +12422,7 @@
       <c r="C18" s="38">
         <v>0.3266</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>6.02</v>
       </c>
     </row>
@@ -12391,7 +12433,7 @@
       <c r="C19" s="38">
         <v>0.3417</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>15.17</v>
       </c>
     </row>
@@ -12402,7 +12444,7 @@
       <c r="C20" s="38">
         <v>0.3168</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>-24.9</v>
       </c>
     </row>
@@ -12413,7 +12455,7 @@
       <c r="C21" s="38">
         <v>0.3223</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>5.59</v>
       </c>
     </row>
@@ -12424,7 +12466,7 @@
       <c r="C22" s="38">
         <v>0.3317</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>9.46</v>
       </c>
     </row>
@@ -12435,7 +12477,7 @@
       <c r="C23" s="38">
         <v>0.3289</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>-2.89</v>
       </c>
     </row>
@@ -12446,7 +12488,7 @@
       <c r="C24" s="38">
         <v>0.321</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>-7.94</v>
       </c>
     </row>
@@ -12457,7 +12499,7 @@
       <c r="C25" s="38">
         <v>0.3092</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>-11.84</v>
       </c>
     </row>
@@ -12468,7 +12510,7 @@
       <c r="C26" s="38">
         <v>0.3143</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>5.15</v>
       </c>
     </row>
@@ -12479,7 +12521,7 @@
       <c r="C27" s="38">
         <v>0.3235</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>9.25</v>
       </c>
     </row>
@@ -12490,7 +12532,7 @@
       <c r="C28" s="38">
         <v>0.3098</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>-13.74</v>
       </c>
     </row>
@@ -12512,8 +12554,8 @@
   </sheetPr>
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -12913,53 +12955,118 @@
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B23" s="34"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="34">
+        <v>43430</v>
+      </c>
+      <c r="C23" s="54">
+        <f>$E23*$H$3+$D22</f>
+        <v>0.007353</v>
+      </c>
+      <c r="D23" s="55">
+        <f>$E23*$H$3+$D22</f>
+        <v>0.007353</v>
+      </c>
+      <c r="E23" s="53">
+        <f>IF(F23&gt;0,$F23*$G$3,IF(F23&lt;0,F23))</f>
+        <v>8.61</v>
+      </c>
+      <c r="F23" s="60">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B24" s="34"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="B24" s="34">
+        <v>43431</v>
+      </c>
+      <c r="C24" s="54">
+        <f>$E24*$H$3+$D23</f>
+        <v>0.014052</v>
+      </c>
+      <c r="D24" s="55">
+        <f>$E24*$H$3+$D23</f>
+        <v>0.014052</v>
+      </c>
+      <c r="E24" s="53">
+        <f>IF(F24&gt;0,$F24*$G$3,IF(F24&lt;0,F24))</f>
+        <v>6.699</v>
+      </c>
+      <c r="F24" s="61">
+        <v>9.57</v>
+      </c>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B25" s="64"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
+      <c r="B25" s="34">
+        <v>43432</v>
+      </c>
+      <c r="C25" s="54">
+        <f>$E25*$H$3+$D24</f>
+        <v>0.021283</v>
+      </c>
+      <c r="D25" s="55">
+        <f>$E25*$H$3+$D24</f>
+        <v>0.021283</v>
+      </c>
+      <c r="E25" s="53">
+        <f>IF(F25&gt;0,$F25*$G$3,IF(F25&lt;0,F25))</f>
+        <v>7.231</v>
+      </c>
+      <c r="F25" s="62">
+        <v>10.33</v>
+      </c>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B26" s="64"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="57"/>
+      <c r="B26" s="34">
+        <v>43433</v>
+      </c>
+      <c r="C26" s="54">
+        <f>$E26*$H$3+$D25</f>
+        <v>0.025007</v>
+      </c>
+      <c r="D26" s="55">
+        <f>$E26*$H$3+$D25</f>
+        <v>0.025007</v>
+      </c>
+      <c r="E26" s="53">
+        <f>IF(F26&gt;0,$F26*$G$3,IF(F26&lt;0,F26))</f>
+        <v>3.724</v>
+      </c>
+      <c r="F26" s="57">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B27" s="64"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="60"/>
+      <c r="B27" s="34">
+        <v>43434</v>
+      </c>
+      <c r="C27" s="54">
+        <f>$E27*$H$3+$D26</f>
+        <v>0.015347</v>
+      </c>
+      <c r="D27" s="55">
+        <f>$E27*$H$3+$D26</f>
+        <v>0.015347</v>
+      </c>
+      <c r="E27" s="53">
+        <f>IF(F27&gt;0,$F27*$G$3,IF(F27&lt;0,F27))</f>
+        <v>-9.66</v>
+      </c>
+      <c r="F27" s="60">
+        <v>-9.66</v>
+      </c>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="2:6">
-      <c r="B28" s="64"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="38"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="72"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="2:6">
       <c r="B29" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="71"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="60"/>
       <c r="F29" s="59"/>
     </row>
@@ -13634,7 +13741,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="76" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13658,79 +13765,79 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:4">
-      <c r="B6" s="83">
+      <c r="B6" s="77">
         <v>42300</v>
       </c>
       <c r="C6" s="38">
         <v>0.0266</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="69">
         <v>53.2</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="83">
+      <c r="B7" s="77">
         <v>42303</v>
       </c>
       <c r="C7" s="38">
         <v>-0.1064</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="69">
         <v>-186.2</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="83">
+      <c r="B8" s="77">
         <v>42304</v>
       </c>
       <c r="C8" s="38">
         <v>-0.00770000000000001</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>197.4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="83">
+      <c r="B9" s="77">
         <v>42305</v>
       </c>
       <c r="C9" s="38">
         <v>0.0147</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="69">
         <v>44.8</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="83">
+      <c r="B10" s="77">
         <v>42306</v>
       </c>
       <c r="C10" s="38">
         <v>0.15435</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>279.3</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="84">
+      <c r="B11" s="78">
         <v>42307</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="74">
         <v>-0.01865</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="75">
         <v>-242.2</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="18">
         <v>0.0629</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="71">
         <v>146.3</v>
       </c>
     </row>
@@ -13760,7 +13867,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="82" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="76" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -13784,108 +13891,108 @@
       </c>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="2:4">
-      <c r="B6" s="83">
+      <c r="B6" s="77">
         <v>42309</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="22"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
-      <c r="B7" s="83">
+      <c r="B7" s="77">
         <v>42310</v>
       </c>
       <c r="C7" s="38">
         <v>0.0867</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="69">
         <v>210.7</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
-      <c r="B8" s="83">
+      <c r="B8" s="77">
         <v>42311</v>
       </c>
       <c r="C8" s="38">
         <v>0.0737</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>-18.2</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
-      <c r="B9" s="83">
+      <c r="B9" s="77">
         <v>42312</v>
       </c>
       <c r="C9" s="38">
         <v>0.32815</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="69">
         <v>508.9</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:4">
-      <c r="B10" s="83">
+      <c r="B10" s="77">
         <v>42313</v>
       </c>
       <c r="C10" s="38">
         <v>0.22415</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>-145.6</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:4">
-      <c r="B11" s="83">
+      <c r="B11" s="77">
         <v>42314</v>
       </c>
       <c r="C11" s="38">
         <v>0.2435</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>38.66</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:4">
-      <c r="B12" s="83">
+      <c r="B12" s="77">
         <v>42317</v>
       </c>
       <c r="C12" s="38">
         <v>0.1565</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>-173.8</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:4">
-      <c r="B13" s="83">
+      <c r="B13" s="77">
         <v>42318</v>
       </c>
       <c r="C13" s="38">
         <v>-0.0229</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>-358.86</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:4">
-      <c r="B14" s="83">
+      <c r="B14" s="77">
         <v>42319</v>
       </c>
       <c r="C14" s="38">
         <v>-0.0655</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>-85.17</v>
       </c>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:4">
-      <c r="B15" s="83">
+      <c r="B15" s="77">
         <v>42320</v>
       </c>
       <c r="C15" s="38">
         <v>-0.1</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>-69.1</v>
       </c>
     </row>
@@ -13896,7 +14003,7 @@
       <c r="C16" s="38">
         <v>-0.0885</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>23</v>
       </c>
     </row>
@@ -13907,7 +14014,7 @@
       <c r="C17" s="38">
         <v>-0.00017</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>176.66</v>
       </c>
     </row>
@@ -13918,7 +14025,7 @@
       <c r="C18" s="38">
         <v>0.0788</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>158</v>
       </c>
     </row>
@@ -13929,7 +14036,7 @@
       <c r="C19" s="38">
         <v>0.09</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>22.33</v>
       </c>
     </row>
@@ -13940,7 +14047,7 @@
       <c r="C20" s="38">
         <v>0.1373</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>94.67</v>
       </c>
     </row>
@@ -13951,7 +14058,7 @@
       <c r="C21" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>60</v>
       </c>
     </row>
@@ -13962,7 +14069,7 @@
       <c r="C22" s="38">
         <v>0.201</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>67.46</v>
       </c>
     </row>
@@ -13973,7 +14080,7 @@
       <c r="C23" s="38">
         <v>0.2392</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>76.4</v>
       </c>
     </row>
@@ -13984,7 +14091,7 @@
       <c r="C24" s="38">
         <v>0.2695</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>60.66</v>
       </c>
     </row>
@@ -13995,7 +14102,7 @@
       <c r="C25" s="38">
         <v>0.2153</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>-108.47</v>
       </c>
     </row>
@@ -14006,7 +14113,7 @@
       <c r="C26" s="38">
         <v>0.24</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>49.4</v>
       </c>
       <c r="S26" s="1">
@@ -14021,10 +14128,10 @@
       <c r="B27" s="33">
         <v>42338</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="74">
         <v>0.2748</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="75">
         <v>69.73</v>
       </c>
       <c r="T27" s="1">
@@ -14032,13 +14139,13 @@
       </c>
     </row>
     <row r="28" ht="23.25" customHeight="1" spans="2:4">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="18">
         <v>0.2748</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="71">
         <v>657.37</v>
       </c>
     </row>
@@ -14067,7 +14174,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="18" width="9" style="1"/>
     <col min="19" max="19" width="8.88333333333333" style="1" customWidth="1"/>
@@ -14099,7 +14206,7 @@
       <c r="C6" s="38">
         <v>0.3044</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="69">
         <v>59.26</v>
       </c>
     </row>
@@ -14110,7 +14217,7 @@
       <c r="C7" s="38">
         <v>0.3227</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="69">
         <v>36.66</v>
       </c>
     </row>
@@ -14121,7 +14228,7 @@
       <c r="C8" s="38">
         <v>0.3574</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>69.33</v>
       </c>
     </row>
@@ -14129,10 +14236,10 @@
       <c r="B9" s="33">
         <v>42342</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="74">
         <v>0.3706</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="75">
         <v>26.4</v>
       </c>
     </row>
@@ -14143,7 +14250,7 @@
       <c r="C10" s="38">
         <v>0.3956</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>50</v>
       </c>
     </row>
@@ -14154,7 +14261,7 @@
       <c r="C11" s="38">
         <v>0.4214</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>51.66</v>
       </c>
     </row>
@@ -14165,7 +14272,7 @@
       <c r="C12" s="38">
         <v>0.3908</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>-61.25</v>
       </c>
     </row>
@@ -14176,7 +14283,7 @@
       <c r="C13" s="38">
         <v>0.4112</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>40.75</v>
       </c>
     </row>
@@ -14187,7 +14294,7 @@
       <c r="C14" s="38">
         <v>0.4318</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>41.25</v>
       </c>
     </row>
@@ -14198,7 +14305,7 @@
       <c r="C15" s="38">
         <v>0.4659</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>68.19</v>
       </c>
     </row>
@@ -14209,7 +14316,7 @@
       <c r="C16" s="38">
         <v>0.4402</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>-51.55</v>
       </c>
     </row>
@@ -14220,7 +14327,7 @@
       <c r="C17" s="38">
         <v>0.4245</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>-31.38</v>
       </c>
     </row>
@@ -14231,7 +14338,7 @@
       <c r="C18" s="38">
         <v>0.4484</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>47.74</v>
       </c>
     </row>
@@ -14242,7 +14349,7 @@
       <c r="C19" s="38">
         <v>0.4594</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>22.04</v>
       </c>
     </row>
@@ -14253,7 +14360,7 @@
       <c r="C20" s="38">
         <v>0.476</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>33.29</v>
       </c>
     </row>
@@ -14264,7 +14371,7 @@
       <c r="C21" s="38">
         <v>0.4571</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>-37.95</v>
       </c>
     </row>
@@ -14275,7 +14382,7 @@
       <c r="C22" s="38">
         <v>0.4434</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>-27.51</v>
       </c>
     </row>
@@ -14286,7 +14393,7 @@
       <c r="C23" s="38">
         <v>0.4622</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>37.62</v>
       </c>
     </row>
@@ -14297,7 +14404,7 @@
       <c r="C24" s="38">
         <v>0.4725</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>20.56</v>
       </c>
     </row>
@@ -14308,7 +14415,7 @@
       <c r="C25" s="38">
         <v>0.4884</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>31.97</v>
       </c>
     </row>
@@ -14319,7 +14426,7 @@
       <c r="C26" s="38">
         <v>0.4991</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>21.43</v>
       </c>
     </row>
@@ -14330,7 +14437,7 @@
       <c r="C27" s="38">
         <v>0.512</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>25.85</v>
       </c>
     </row>
@@ -14341,18 +14448,18 @@
       <c r="C28" s="38">
         <v>0.5026</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>-9.47</v>
       </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" spans="2:4">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.5026</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="71">
         <v>259.69</v>
       </c>
     </row>
@@ -14381,7 +14488,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
@@ -14405,31 +14512,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="74">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="75">
         <v>5.98</v>
       </c>
     </row>
@@ -14440,7 +14547,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>10.15</v>
       </c>
     </row>
@@ -14451,7 +14558,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>-11.75</v>
       </c>
     </row>
@@ -14462,7 +14569,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>16.39</v>
       </c>
     </row>
@@ -14473,7 +14580,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>-25.55</v>
       </c>
     </row>
@@ -14484,7 +14591,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>11.45</v>
       </c>
     </row>
@@ -14495,7 +14602,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>7.68</v>
       </c>
     </row>
@@ -14506,7 +14613,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>-8.57</v>
       </c>
     </row>
@@ -14517,7 +14624,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>-15.65</v>
       </c>
     </row>
@@ -14528,7 +14635,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>10.16</v>
       </c>
     </row>
@@ -14539,7 +14646,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>17.65</v>
       </c>
     </row>
@@ -14550,7 +14657,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>21.08</v>
       </c>
     </row>
@@ -14561,7 +14668,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>-13.14</v>
       </c>
     </row>
@@ -14572,7 +14679,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>-17.07</v>
       </c>
     </row>
@@ -14583,7 +14690,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>9.69</v>
       </c>
     </row>
@@ -14594,7 +14701,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>-7.94</v>
       </c>
     </row>
@@ -14605,7 +14712,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>9.42</v>
       </c>
     </row>
@@ -14616,7 +14723,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>21.99</v>
       </c>
     </row>
@@ -14627,7 +14734,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>14.64</v>
       </c>
     </row>
@@ -14638,7 +14745,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>8.1</v>
       </c>
     </row>
@@ -14649,7 +14756,7 @@
       <c r="C29" s="31">
         <v>0.0557</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="68">
         <v>-8.61</v>
       </c>
     </row>
@@ -14660,7 +14767,7 @@
       <c r="C30" s="31">
         <v>0.0673</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="68">
         <v>11.67</v>
       </c>
     </row>
@@ -14671,7 +14778,7 @@
       <c r="C31" s="31">
         <v>0.0775</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="68">
         <v>10.26</v>
       </c>
     </row>
@@ -14682,7 +14789,7 @@
       <c r="C32" s="31">
         <v>0.0885</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="68">
         <v>11.04</v>
       </c>
     </row>
@@ -14693,7 +14800,7 @@
       <c r="C33" s="31">
         <v>0.1016</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="68">
         <v>13.18</v>
       </c>
     </row>
@@ -14704,7 +14811,7 @@
       <c r="C34" s="38">
         <v>0.1136</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="69">
         <v>12.06</v>
       </c>
     </row>
@@ -14715,7 +14822,7 @@
       <c r="C35" s="38">
         <v>0.1224</v>
       </c>
-      <c r="D35" s="75">
+      <c r="D35" s="69">
         <v>8.89</v>
       </c>
     </row>
@@ -14726,7 +14833,7 @@
       <c r="C36" s="38">
         <v>0.1332</v>
       </c>
-      <c r="D36" s="75">
+      <c r="D36" s="69">
         <v>10.88</v>
       </c>
     </row>
@@ -14880,7 +14987,7 @@
       <c r="C50" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D50" s="75">
+      <c r="D50" s="69">
         <v>-14.86</v>
       </c>
     </row>
@@ -14891,7 +14998,7 @@
       <c r="C51" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D51" s="75">
+      <c r="D51" s="69">
         <v>11.3</v>
       </c>
     </row>
@@ -14902,7 +15009,7 @@
       <c r="C52" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D52" s="75">
+      <c r="D52" s="69">
         <v>-9.92</v>
       </c>
     </row>
@@ -14913,7 +15020,7 @@
       <c r="C53" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D53" s="75">
+      <c r="D53" s="69">
         <v>8.18</v>
       </c>
     </row>
@@ -14924,7 +15031,7 @@
       <c r="C54" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D54" s="75">
+      <c r="D54" s="69">
         <v>-4.63</v>
       </c>
     </row>
@@ -14952,7 +15059,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
@@ -14982,31 +15089,31 @@
       <c r="B6" s="30">
         <v>42370</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:4">
       <c r="B7" s="30">
         <v>42371</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:4">
       <c r="B8" s="30">
         <v>42372</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:4">
       <c r="B9" s="30">
         <v>42373</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="74">
         <v>0.0059</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="75">
         <v>5.98</v>
       </c>
     </row>
@@ -15017,7 +15124,7 @@
       <c r="C10" s="38">
         <v>0.016</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>10.15</v>
       </c>
     </row>
@@ -15028,7 +15135,7 @@
       <c r="C11" s="38">
         <v>0.0043</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>-11.75</v>
       </c>
     </row>
@@ -15039,7 +15146,7 @@
       <c r="C12" s="38">
         <v>0.0206</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>16.39</v>
       </c>
     </row>
@@ -15050,7 +15157,7 @@
       <c r="C13" s="38">
         <v>-0.0049</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>-25.55</v>
       </c>
     </row>
@@ -15061,7 +15168,7 @@
       <c r="C14" s="38">
         <v>0.0065</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>11.45</v>
       </c>
     </row>
@@ -15072,7 +15179,7 @@
       <c r="C15" s="38">
         <v>0.0141</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>7.68</v>
       </c>
     </row>
@@ -15083,7 +15190,7 @@
       <c r="C16" s="38">
         <v>0.0056</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>-8.57</v>
       </c>
     </row>
@@ -15094,7 +15201,7 @@
       <c r="C17" s="38">
         <v>-0.01</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>-15.65</v>
       </c>
     </row>
@@ -15105,7 +15212,7 @@
       <c r="C18" s="38">
         <v>0.0001</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>10.16</v>
       </c>
     </row>
@@ -15116,7 +15223,7 @@
       <c r="C19" s="38">
         <v>0.0177</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>17.65</v>
       </c>
     </row>
@@ -15127,7 +15234,7 @@
       <c r="C20" s="38">
         <v>0.0387</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>21.08</v>
       </c>
     </row>
@@ -15138,7 +15245,7 @@
       <c r="C21" s="38">
         <v>0.0256</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>-13.14</v>
       </c>
     </row>
@@ -15149,7 +15256,7 @@
       <c r="C22" s="38">
         <v>0.0086</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>-17.07</v>
       </c>
     </row>
@@ -15160,7 +15267,7 @@
       <c r="C23" s="38">
         <v>0.0182</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>9.69</v>
       </c>
     </row>
@@ -15171,7 +15278,7 @@
       <c r="C24" s="38">
         <v>0.0103</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>-7.94</v>
       </c>
     </row>
@@ -15182,7 +15289,7 @@
       <c r="C25" s="38">
         <v>0.0197</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>9.42</v>
       </c>
     </row>
@@ -15193,7 +15300,7 @@
       <c r="C26" s="38">
         <v>0.0416</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>21.99</v>
       </c>
     </row>
@@ -15204,7 +15311,7 @@
       <c r="C27" s="38">
         <v>0.0562</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>14.64</v>
       </c>
     </row>
@@ -15215,7 +15322,7 @@
       <c r="C28" s="38">
         <v>0.0643</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>8.1</v>
       </c>
     </row>
@@ -15224,23 +15331,23 @@
         <v>42399</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="69"/>
     </row>
     <row r="30" ht="28.5" customHeight="1" spans="2:4">
       <c r="B30" s="30">
         <v>42400</v>
       </c>
       <c r="C30" s="38"/>
-      <c r="D30" s="75"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="2:4">
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="18">
         <v>0.0643</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="71">
         <v>15.39</v>
       </c>
     </row>
@@ -15472,13 +15579,13 @@
       </c>
     </row>
     <row r="22" ht="26.25" customHeight="1" spans="2:4">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="18">
         <v>0.1333</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="71">
         <v>35.86</v>
       </c>
     </row>
@@ -15507,7 +15614,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
@@ -15540,7 +15647,7 @@
       <c r="C6" s="31">
         <v>0.1448</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="68">
         <v>11.57</v>
       </c>
     </row>
@@ -15551,7 +15658,7 @@
       <c r="C7" s="31">
         <v>0.1468</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="68">
         <v>2.01</v>
       </c>
     </row>
@@ -15562,7 +15669,7 @@
       <c r="C8" s="31">
         <v>0.1541</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="68">
         <v>7.37</v>
       </c>
     </row>
@@ -15573,7 +15680,7 @@
       <c r="C9" s="31">
         <v>0.1644</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="68">
         <v>10.32</v>
       </c>
     </row>
@@ -15584,7 +15691,7 @@
       <c r="C10" s="31">
         <v>0.1726</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="68">
         <v>8.22</v>
       </c>
     </row>
@@ -15595,7 +15702,7 @@
       <c r="C11" s="38">
         <v>0.1578</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>-14.86</v>
       </c>
     </row>
@@ -15606,7 +15713,7 @@
       <c r="C12" s="38">
         <v>0.1691</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>11.3</v>
       </c>
     </row>
@@ -15617,7 +15724,7 @@
       <c r="C13" s="38">
         <v>0.1592</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>-9.92</v>
       </c>
     </row>
@@ -15628,7 +15735,7 @@
       <c r="C14" s="38">
         <v>0.1673</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>8.18</v>
       </c>
     </row>
@@ -15639,7 +15746,7 @@
       <c r="C15" s="38">
         <v>0.1627</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>-4.63</v>
       </c>
     </row>
@@ -15650,7 +15757,7 @@
       <c r="C16" s="38">
         <v>0.117</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>-13.93</v>
       </c>
     </row>
@@ -15661,7 +15768,7 @@
       <c r="C17" s="38">
         <v>0.1256</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>8.68</v>
       </c>
     </row>
@@ -15672,7 +15779,7 @@
       <c r="C18" s="38">
         <v>0.1337</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>8.19</v>
       </c>
     </row>
@@ -15683,7 +15790,7 @@
       <c r="C19" s="38">
         <v>0.1454</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>11.79</v>
       </c>
     </row>
@@ -15694,7 +15801,7 @@
       <c r="C20" s="38">
         <v>0.153</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>7.63</v>
       </c>
     </row>
@@ -15705,7 +15812,7 @@
       <c r="C21" s="38">
         <v>0.1641</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>11.12</v>
       </c>
     </row>
@@ -15716,7 +15823,7 @@
       <c r="C22" s="38">
         <v>0.154</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>-10.16</v>
       </c>
     </row>
@@ -15727,7 +15834,7 @@
       <c r="C23" s="38">
         <v>0.1802</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>26.29</v>
       </c>
     </row>
@@ -15738,7 +15845,7 @@
       <c r="C24" s="38">
         <v>0.1742</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>-6.01</v>
       </c>
     </row>
@@ -15749,7 +15856,7 @@
       <c r="C25" s="38">
         <v>0.1819</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>7.72</v>
       </c>
     </row>
@@ -15760,7 +15867,7 @@
       <c r="C26" s="38">
         <v>0.1737</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="69">
         <v>-8.29</v>
       </c>
     </row>
@@ -15771,7 +15878,7 @@
       <c r="C27" s="38">
         <v>0.1841</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="69">
         <v>10.41</v>
       </c>
     </row>
@@ -15782,18 +15889,18 @@
       <c r="C28" s="38">
         <v>0.1768</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="69">
         <v>-7.35</v>
       </c>
     </row>
     <row r="29" ht="29.25" customHeight="1" spans="2:4">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="18">
         <v>0.1768</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="71">
         <v>30.41</v>
       </c>
     </row>
@@ -15822,7 +15929,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="41" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.8833333333333" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="17" width="9" style="1"/>
     <col min="18" max="18" width="8.38333333333333" style="1" customWidth="1"/>
@@ -15855,7 +15962,7 @@
       <c r="C6" s="31">
         <v>0.1867</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="68">
         <v>9.93</v>
       </c>
     </row>
@@ -15866,7 +15973,7 @@
       <c r="C7" s="31">
         <v>0.2082</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="68">
         <v>21.55</v>
       </c>
     </row>
@@ -15877,7 +15984,7 @@
       <c r="C8" s="38">
         <v>0.1992</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="69">
         <v>-9.01</v>
       </c>
     </row>
@@ -15888,7 +15995,7 @@
       <c r="C9" s="38">
         <v>0.2118</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="69">
         <v>12.66</v>
       </c>
     </row>
@@ -15899,7 +16006,7 @@
       <c r="C10" s="38">
         <v>0.1997</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="69">
         <v>-12.17</v>
       </c>
     </row>
@@ -15910,7 +16017,7 @@
       <c r="C11" s="38">
         <v>0.2342</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="69">
         <v>34.53</v>
       </c>
     </row>
@@ -15921,7 +16028,7 @@
       <c r="C12" s="38">
         <v>0.243</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="69">
         <v>8.89</v>
       </c>
     </row>
@@ -15932,7 +16039,7 @@
       <c r="C13" s="38">
         <v>0.2753</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="69">
         <v>32.33</v>
       </c>
     </row>
@@ -15943,7 +16050,7 @@
       <c r="C14" s="38">
         <v>0.2576</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="69">
         <v>-17.71</v>
       </c>
     </row>
@@ -15954,7 +16061,7 @@
       <c r="C15" s="38">
         <v>0.2421</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="69">
         <v>-15.53</v>
       </c>
     </row>
@@ -15965,7 +16072,7 @@
       <c r="C16" s="38">
         <v>0.2516</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="69">
         <v>9.57</v>
       </c>
     </row>
@@ -15976,7 +16083,7 @@
       <c r="C17" s="38">
         <v>0.2438</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="69">
         <v>-7.86</v>
       </c>
     </row>
@@ -15987,7 +16094,7 @@
       <c r="C18" s="38">
         <v>0.2506</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="69">
         <v>6.81</v>
       </c>
     </row>
@@ -15998,7 +16105,7 @@
       <c r="C19" s="38">
         <v>0.2721</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="69">
         <v>21.56</v>
       </c>
     </row>
@@ -16009,7 +16116,7 @@
       <c r="C20" s="38">
         <v>0.2536</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="69">
         <v>-18.57</v>
       </c>
     </row>
@@ -16020,7 +16127,7 @@
       <c r="C21" s="38">
         <v>0.2659</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="69">
         <v>12.33</v>
       </c>
     </row>
@@ -16031,7 +16138,7 @@
       <c r="C22" s="38">
         <v>0.2739</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="69">
         <v>8.05</v>
       </c>
     </row>
@@ -16042,7 +16149,7 @@
       <c r="C23" s="38">
         <v>0.2508</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="69">
         <v>-23.18</v>
       </c>
     </row>
@@ -16053,7 +16160,7 @@
       <c r="C24" s="38">
         <v>0.2356</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="69">
         <v>-15.23</v>
       </c>
     </row>
@@ -16064,7 +16171,7 @@
       <c r="C25" s="38">
         <v>0.2558</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="69">
         <v>20.29</v>
       </c>
     </row>
@@ -16073,16 +16180,16 @@
         <v>42490</v>
       </c>
       <c r="C26" s="38"/>
-      <c r="D26" s="75"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="2:4">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="70" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0.243</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="71">
         <v>40.11</v>
       </c>
     </row>
